--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +132,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,20 +576,18 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>PHYSICAL TRAINING
-Tynchtykbek Makerov
-Yellow classroom
-09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>STATISTICS II
-Azmat Hussain
-Grey classroom
-09:00-10:30</t>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Statistics II
+09:00-10:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Statistics II
+09:00-10:30
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -566,8 +597,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -575,8 +606,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -584,8 +615,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -593,8 +624,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -602,8 +633,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -625,12 +656,32 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>RESEARCH &amp; WRITING SKILLS FOR COMPUTER SCIENCE
-Hamid Khan
-Grey classroom
-11:00-12:30</t>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Statistics II
+11:00-12:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
+11:00-12:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Machine Learning
+11:00-12:30
+room:Yellow classroom: 209</t>
         </is>
       </c>
     </row>
@@ -640,7 +691,10 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="F15" s="6" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -648,7 +702,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="F16" s="6" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -656,7 +713,10 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="F17" s="6" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -664,7 +724,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="F18" s="6" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -672,7 +735,10 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -722,12 +788,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>SOFTWARE ENGINEERING
-Muhammad Shuaib Qureshi
-Grey classroom
-14:00-15:30</t>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Machine Learning
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Computer Graphics
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>Computer Graphics
+14:00-15:30
+room:Yellow classroom: 209</t>
         </is>
       </c>
     </row>
@@ -737,7 +816,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="F27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -745,7 +826,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="F28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -753,7 +836,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="F29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -761,7 +846,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="F30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -769,7 +856,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -791,6 +880,20 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Software Engineering
+16:00-17:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -798,6 +901,8 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -805,6 +910,8 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -812,6 +919,8 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -819,6 +928,8 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -826,6 +937,8 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1017,17 +1130,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="E14:E19"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -670,20 +670,13 @@
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Operating Systems and System Programming
 11:00-12:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Machine Learning
-11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -693,7 +686,6 @@
       </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
@@ -704,7 +696,6 @@
       </c>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
@@ -715,7 +706,6 @@
       </c>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
       <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
@@ -726,7 +716,6 @@
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
@@ -737,7 +726,6 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
@@ -789,24 +777,38 @@
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Machine Learning
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>Computer Graphics
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>Computer Graphics
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Machine Learning
 14:00-15:30
-room:Yellow classroom: 209</t>
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>Software Engineering
+14:00-15:30
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -818,6 +820,8 @@
       </c>
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -828,6 +832,8 @@
       </c>
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -838,6 +844,8 @@
       </c>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -848,6 +856,8 @@
       </c>
       <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -858,6 +868,8 @@
       </c>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -887,9 +899,9 @@
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Operating Systems and System Programming
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Computer Graphics
 16:00-17:30
 room:Green classroom: 204</t>
         </is>
@@ -902,7 +914,7 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -911,7 +923,7 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -920,7 +932,7 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -929,7 +941,7 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -938,7 +950,7 @@
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1130,24 +1142,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F6:F11"/>
+  <mergeCells count="19">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -670,11 +670,11 @@
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Operating Systems and System Programming
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
 11:00-12:30
-room:Yellow classroom: 209</t>
+room:Grey classroom: 203</t>
         </is>
       </c>
     </row>
@@ -776,41 +776,34 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
+14:00-15:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Operating Systems and System Programming
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>Machine Learning
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="D26" s="9" t="inlineStr">
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>Computer Graphics
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Machine Learning
-14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>Software Engineering
-14:00-15:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -820,7 +813,6 @@
       </c>
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
       <c r="E27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
@@ -832,7 +824,6 @@
       </c>
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
       <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
@@ -844,7 +835,6 @@
       </c>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
       <c r="E29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
@@ -856,7 +846,6 @@
       </c>
       <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
       <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
@@ -868,7 +857,6 @@
       </c>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
@@ -892,17 +880,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Software Engineering
-16:00-17:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Computer Graphics
 16:00-17:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Machine Learning
+16:00-17:30
 room:Green classroom: 204</t>
         </is>
       </c>
@@ -914,7 +902,7 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -923,7 +911,7 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -932,7 +920,7 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -941,7 +929,7 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -950,7 +938,7 @@
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="D39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1142,25 +1130,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="E34:E39"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,18 +138,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,6 +592,20 @@
 room:White classroom: 202</t>
         </is>
       </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
+09:00-10:30
+room:White classroom: 202</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Statistics II
+09:00-10:30
+room:White classroom: 202</t>
+        </is>
+      </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Statistics II
@@ -598,6 +621,8 @@
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
@@ -607,6 +632,8 @@
         </is>
       </c>
       <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
@@ -616,6 +643,8 @@
         </is>
       </c>
       <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
@@ -625,6 +654,8 @@
         </is>
       </c>
       <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
@@ -634,6 +665,8 @@
         </is>
       </c>
       <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
@@ -658,23 +691,30 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>Statistics II
+          <t>Software Engineering
 11:00-12:30
 room:White classroom: 202</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
 11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Machine Learning
 11:00-12:30
-room:Grey classroom: 203</t>
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Machine Learning
+11:00-12:30
+room:Yellow classroom: 209</t>
         </is>
       </c>
     </row>
@@ -685,7 +725,8 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
@@ -695,7 +736,8 @@
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
@@ -705,7 +747,8 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
       <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
@@ -715,7 +758,8 @@
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
@@ -725,7 +769,8 @@
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
@@ -776,34 +821,20 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
-14:00-15:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
-        <is>
-          <t>Operating Systems and System Programming
-14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Machine Learning
-14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Computer Graphics
 14:00-15:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>Software Engineering
+14:00-15:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -812,8 +843,6 @@
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -823,8 +852,6 @@
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -834,8 +861,6 @@
         </is>
       </c>
       <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -845,8 +870,6 @@
         </is>
       </c>
       <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -856,8 +879,6 @@
         </is>
       </c>
       <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -880,20 +901,27 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Computer Graphics
 16:00-17:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Machine Learning
-16:00-17:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -901,7 +929,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
       <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -910,7 +939,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
       <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -919,7 +949,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
       <c r="E37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -928,7 +959,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
       <c r="E38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -937,7 +969,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="8" t="n"/>
       <c r="E39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -1130,24 +1163,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F6:F11"/>
+  <mergeCells count="20">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="E34:E39"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -58,8 +58,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,20 +76,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0092D050"/>
         <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -146,7 +146,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -585,32 +585,25 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Statistics II
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Software Engineering
 09:00-10:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
+room:201</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Computer Graphics
 09:00-10:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Statistics II
+room:202</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Software Engineering
 09:00-10:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Statistics II
-09:00-10:30
-room:Grey classroom: 203</t>
+room:202</t>
         </is>
       </c>
     </row>
@@ -620,10 +613,9 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -631,10 +623,9 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -642,10 +633,9 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="B9" s="7" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -653,10 +643,9 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -664,10 +653,9 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -689,32 +677,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Software Engineering
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
 11:00-12:30
-room:White classroom: 202</t>
-        </is>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
+room:209</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Operating Systems and System Programming
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Machine Learning
+room:201</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Machine Learning
-11:00-12:30
-room:Yellow classroom: 209</t>
+room:209</t>
         </is>
       </c>
     </row>
@@ -725,7 +706,6 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
     </row>
@@ -736,7 +716,6 @@
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
       <c r="F16" s="7" t="n"/>
     </row>
@@ -747,7 +726,6 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
       <c r="E17" s="7" t="n"/>
       <c r="F17" s="7" t="n"/>
     </row>
@@ -758,7 +736,6 @@
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
       <c r="F18" s="7" t="n"/>
     </row>
@@ -769,7 +746,6 @@
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
     </row>
@@ -821,18 +797,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>Physical training
+14:00-16:00
+room:100</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
         <is>
           <t>Computer Graphics
 14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>Software Engineering
-14:00-15:30
-room:Grey classroom: 203</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -842,7 +818,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -851,7 +827,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -860,7 +836,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -869,7 +845,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -878,7 +854,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -887,6 +863,7 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="E32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -894,6 +871,7 @@
           <t>15:45</t>
         </is>
       </c>
+      <c r="E33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -901,25 +879,32 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
-16:00-17:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
         <is>
           <t>Operating Systems and System Programming
 16:00-17:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>Computer Graphics
+room:203</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Statistics II
 16:00-17:30
-room:Yellow classroom: 209</t>
+room:203</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Machine Learning
+16:00-17:30
+room:203</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>Software Engineering
+16:00-17:30
+room:204</t>
         </is>
       </c>
     </row>
@@ -929,9 +914,10 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="C35" s="7" t="n"/>
+      <c r="B35" s="7" t="n"/>
       <c r="D35" s="7" t="n"/>
       <c r="E35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -939,9 +925,10 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="C36" s="7" t="n"/>
+      <c r="B36" s="7" t="n"/>
       <c r="D36" s="7" t="n"/>
       <c r="E36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -949,9 +936,10 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="C37" s="7" t="n"/>
+      <c r="B37" s="7" t="n"/>
       <c r="D37" s="7" t="n"/>
       <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -959,9 +947,10 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="C38" s="7" t="n"/>
+      <c r="B38" s="7" t="n"/>
       <c r="D38" s="7" t="n"/>
       <c r="E38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -969,9 +958,10 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="C39" s="8" t="n"/>
+      <c r="B39" s="8" t="n"/>
       <c r="D39" s="8" t="n"/>
       <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1163,26 +1153,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C34:C39"/>
+  <mergeCells count="19">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D34:D39"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F34:F39"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="F6:F11"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
-    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E26:E33"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Junior.xlsx
+++ b/xlsx_files/CS Junior.xlsx
@@ -64,8 +64,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,8 +82,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -138,21 +138,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,25 +585,25 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Software Engineering
 09:00-10:30
 room:201</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Computer Graphics
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
 09:00-10:30
-room:202</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Software Engineering
+room:209</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Statistics II
 09:00-10:30
-room:202</t>
+room:201</t>
         </is>
       </c>
     </row>
@@ -613,9 +613,9 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -623,9 +623,9 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,9 +633,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -643,9 +643,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -653,9 +653,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -677,25 +677,11 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Statistics II
 11:00-12:30
-room:209</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Operating Systems and System Programming
-11:00-12:30
-room:201</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Research &amp; Writing Skills for Computer Science
-11:00-12:30
-room:209</t>
+room:204</t>
         </is>
       </c>
     </row>
@@ -705,9 +691,7 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -715,9 +699,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -725,9 +707,7 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -735,9 +715,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -745,9 +723,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -797,17 +773,24 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Physical training
-14:00-16:00
-room:100</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>Computer Graphics
 14:00-15:30
+room:209</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>Research &amp; Writing Skills for Computer Science
+14:00-15:30
+room:209</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>Operating Systems and System Programming
+14:00-15:30
 room:203</t>
         </is>
       </c>
@@ -818,7 +801,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="E27" s="7" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -827,7 +811,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="E28" s="7" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -836,7 +821,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="E29" s="7" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -845,7 +831,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="E30" s="7" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -854,7 +841,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -863,7 +851,6 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="E32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -871,7 +858,6 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="E33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -879,32 +865,32 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>Operating Systems and System Programming
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>Software Engineering
 16:00-17:30
-room:203</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Statistics II
-16:00-17:30
-room:203</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
+room:209</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Machine Learning
 16:00-17:30
-room:203</t>
+room:204</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Physical training
+16:00-18:00
+room:100</t>
         </is>
       </c>
       <c r="F34" s="11" t="inlineStr">
         <is>
           <t>Software Engineering
 16:00-17:30
-room:204</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -915,8 +901,8 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
       <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
       <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -926,8 +912,8 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
       <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
       <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -937,8 +923,8 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
       <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -948,8 +934,8 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
       <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
       <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -959,8 +945,8 @@
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="D39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
+      <c r="D39" s="7" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -969,6 +955,7 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="D40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -976,6 +963,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1154,25 +1142,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D34:D41"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E26:E33"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="D14:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
